--- a/assets/abcd.xlsx
+++ b/assets/abcd.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -88,6 +88,12 @@
     <t>L16AM1</t>
   </si>
   <si>
+    <t>Dresses</t>
+  </si>
+  <si>
+    <t>Sangeet,Engagement</t>
+  </si>
+  <si>
     <t>A long blue top with appliqué work over a net lehenga of gota work. This set includes a short jacket of zardosi work over the top along with a net embroidered dupatta</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
   </si>
   <si>
     <t>Maroon Kurta with Palazzo Pants</t>
+  </si>
+  <si>
+    <t>Engagement</t>
   </si>
   <si>
     <t>Maroon zardosi embroidered kurta over gold palazzo pants</t>
@@ -202,13 +211,14 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2:T3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9676113360324"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.2712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -281,15 +291,19 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -322,18 +336,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>

--- a/assets/abcd.xlsx
+++ b/assets/abcd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>All our outfits are sanitized and dry cleaned by us prior to delivery. Please refrain from anything besides steam ironing.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EcbgozcvcWbKmk-5DhGXTYxysxVj7duprw/view</t>
   </si>
   <si>
     <t>Maroon Kurta with Palazzo Pants</t>
@@ -210,16 +213,18 @@
   </sheetPr>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.2712550607287"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="19" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="67.0364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,18 +337,20 @@
         <v>0</v>
       </c>
       <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -351,7 +358,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
